--- a/Optimzations.xlsx
+++ b/Optimzations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LogicalInvest\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF15389-A802-4AE8-9FE6-2C4FDE24632F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F825AC-C58A-43C6-8D86-90AFEF6A12DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20700" yWindow="7275" windowWidth="17205" windowHeight="11745" xr2:uid="{109E868A-4B1B-4E85-97C8-089867AD6957}"/>
+    <workbookView xWindow="790" yWindow="2310" windowWidth="12930" windowHeight="10280" xr2:uid="{109E868A-4B1B-4E85-97C8-089867AD6957}"/>
   </bookViews>
   <sheets>
     <sheet name="Joint" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>GAR</t>
   </si>
@@ -264,6 +264,15 @@
   </si>
   <si>
     <t>#Nasdaq 100 balanced without hedge</t>
+  </si>
+  <si>
+    <t>GSRS hedged (PM-USD)</t>
+  </si>
+  <si>
+    <t>$sectors ETF</t>
+  </si>
+  <si>
+    <t>#GSRS hedged (PM-USD) (SM)</t>
   </si>
 </sst>
 </file>
@@ -320,12 +329,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -676,689 +684,694 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8690D2E-C911-40D4-BA06-A8C107F8685B}">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="63.7109375" style="3" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="12.85546875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="63.7265625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="9.1796875" style="2"/>
+    <col min="5" max="5" width="12.81640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>17.797000000000001</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>2.3180000000000001</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>7.6769999999999996</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>-6.72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="3">
-        <v>87.182000000000002</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3.9329999999999998</v>
-      </c>
-      <c r="D8" s="3">
-        <v>22.169</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="B8" s="2">
+        <v>87.894999999999996</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="D8" s="2">
+        <v>23.05</v>
+      </c>
+      <c r="E8" s="2">
         <v>-14.86</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="2">
         <v>37.012</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="2">
         <v>2.077</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D15" s="2">
         <v>17.821999999999999</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="2">
         <v>-12.06</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="2">
         <v>49.125999999999998</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="2">
         <v>1.452</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="2">
         <v>33.838999999999999</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="2">
         <v>-45.65</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B30" s="2">
         <v>48.021999999999998</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C30" s="2">
         <v>1.833</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D30" s="2">
         <v>26.196999999999999</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E30" s="2">
         <v>-21.17</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B35" s="2">
         <v>12.616</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C35" s="2">
         <v>1.0009999999999999</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D35" s="2">
         <v>12.6</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E35" s="2">
         <v>-15.73</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="3">
-        <v>31.92</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1.9850000000000001</v>
-      </c>
-      <c r="D39" s="3">
-        <v>16.079000000000001</v>
-      </c>
-      <c r="E39" s="3">
-        <v>-14.13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="B40" s="2">
+        <v>41.585999999999999</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1.913</v>
+      </c>
+      <c r="D40" s="2">
+        <v>21.742000000000001</v>
+      </c>
+      <c r="E40" s="2">
+        <v>-25.31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>33.146999999999998</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>1.37</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <v>24.193999999999999</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>-20.079999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="3">
-        <v>185.05600000000001</v>
-      </c>
-      <c r="C57" s="3">
-        <v>3.1720000000000002</v>
-      </c>
-      <c r="D57" s="3">
-        <v>58.338000000000001</v>
-      </c>
-      <c r="E57" s="3">
-        <v>-41.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="B57" s="2">
+        <v>160.63900000000001</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3.367</v>
+      </c>
+      <c r="D57" s="2">
+        <v>47.709000000000003</v>
+      </c>
+      <c r="E57" s="2">
+        <v>29.19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>94.507000000000005</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <v>1.4339999999999999</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <v>65.900999999999996</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <v>50.98</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>98.081000000000003</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
         <v>1.704</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="2">
         <v>57.554000000000002</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="2">
         <v>-50.76</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>3.9769999999999999</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="2">
         <v>1.706</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="2">
         <v>2.331</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <v>-4.6399999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>3.5419999999999998</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="2">
         <v>1.52</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="2">
         <v>2.3290000000000002</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="2">
         <v>-4.62</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>16.422999999999998</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="2">
         <v>1.83</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="2">
         <v>8.9740000000000002</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="2">
         <v>-8.56</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <v>103.96</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="2">
         <v>3.5339999999999998</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="2">
         <v>29.417999999999999</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="2">
         <v>-27.15</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="10"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>15.896000000000001</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="2">
         <v>0.7</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="2">
         <v>22.707999999999998</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="2">
         <v>-36.26</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="10"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="10"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="10"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="11"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="10"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="11"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="10"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="11"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="10"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1374,12 +1387,12 @@
       <selection activeCell="A10" sqref="A10:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="37.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1393,7 +1406,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1410,27 +1423,27 @@
         <v>-7.54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1447,32 +1460,32 @@
         <v>-31.87</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1489,18 +1502,18 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B19">
@@ -1516,44 +1529,44 @@
         <v>-7.95</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B25">
         <v>16.440000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B26">
         <v>7.15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B27">
